--- a/biology/Médecine/1525_en_santé_et_médecine/1525_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1525_en_santé_et_médecine/1525_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1525_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1525_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1525 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1525_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1525_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ulrich Zwingli fonde à Zurich le Collegium Carolinum, d'abord faculté de théologie, puis d'histoire naturelle (1541), de philologie et philosophie (1601) et de science politique (1731), mais où la médecine ne sera enseignée qu'à partir de 1782, avant la disparition du Collège en 1833 par fusion avec la faculté de droit pour fonder l'université actuelle[1].
-Le seigneur de Fernán-Núñez, dans la province de  Cordoue, en Espagne, fonde une chapelle qui sera à l'origine d'un hôpital d'abord réservé à l'accueil des pèlerins de Saint-Jacques et qui, confié en 1558 à la confrérie de la Charité (Hermandad de la Caridad), sera dès lors connu sous le nom d'Ermita de la Caridad (es)[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ulrich Zwingli fonde à Zurich le Collegium Carolinum, d'abord faculté de théologie, puis d'histoire naturelle (1541), de philologie et philosophie (1601) et de science politique (1731), mais où la médecine ne sera enseignée qu'à partir de 1782, avant la disparition du Collège en 1833 par fusion avec la faculté de droit pour fonder l'université actuelle.
+Le seigneur de Fernán-Núñez, dans la province de  Cordoue, en Espagne, fonde une chapelle qui sera à l'origine d'un hôpital d'abord réservé à l'accueil des pèlerins de Saint-Jacques et qui, confié en 1558 à la confrérie de la Charité (Hermandad de la Caridad), sera dès lors connu sous le nom d'Ermita de la Caridad (es).</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1525_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1525_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Imprimée à Venise par les Torresani, successeurs d'Alde Manuce, première édition des œuvres complètes de Galien en grec, « un des pivots de l’humanisme médical de la Renaissance[3],[4] ».
-Imprimée à Rome chez Francisco Calvo, première édition de la Collection hippocratique, dans la traduction latine de Fabio Calvo[5].
-Publication du De subventione pauperum, de Jean Louis Vivès (1492-1540[6],[7]).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Imprimée à Venise par les Torresani, successeurs d'Alde Manuce, première édition des œuvres complètes de Galien en grec, « un des pivots de l’humanisme médical de la Renaissance, ».
+Imprimée à Rome chez Francisco Calvo, première édition de la Collection hippocratique, dans la traduction latine de Fabio Calvo.
+Publication du De subventione pauperum, de Jean Louis Vivès (1492-1540,).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1525_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1525_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er décembre : Thadeus Hajek (mort en 1600), astronome, mathématicien et naturaliste tchèque, médecin personnel de Rodolphe II, empereur d'Allemagne[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er décembre : Thadeus Hajek (mort en 1600), astronome, mathématicien et naturaliste tchèque, médecin personnel de Rodolphe II, empereur d'Allemagne.
 Vers 1525 :
-Ferrante Imperato (mort en 1615 au plus tôt), pharmacien et naturaliste napolitain[9].
-François Rasse des Neux (mort vers 1587), médecin et chirurgien français, fils du médecin François Rasse l'Ancien († 1561[10],[11] ).
-Juan Valverde de Amusco (en) (mort vers 1587 ou 1588[12]), anatomiste espagnol, surtout connu comme auteur, en 1556, d'une importante Historia de la composicion del cuerpo humano[13].</t>
+Ferrante Imperato (mort en 1615 au plus tôt), pharmacien et naturaliste napolitain.
+François Rasse des Neux (mort vers 1587), médecin et chirurgien français, fils du médecin François Rasse l'Ancien († 1561, ).
+Juan Valverde de Amusco (en) (mort vers 1587 ou 1588), anatomiste espagnol, surtout connu comme auteur, en 1556, d'une importante Historia de la composicion del cuerpo humano.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1525_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1525_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean de Vigo (né vers 1450), chirurgien italien[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean de Vigo (né vers 1450), chirurgien italien.
 </t>
         </is>
       </c>
